--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_8_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_8_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29121.07922295708</v>
+        <v>5795094.765368455</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29121.07922295708</v>
+        <v>5795094.765368455</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29210.81054683695</v>
+        <v>1982130.566030355</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29210.81054683695</v>
+        <v>1982130.566030355</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418550965.503908</v>
+        <v>55971445.06833554</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11408.54218205786</v>
+        <v>1238458.969731289</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22344.96725547798</v>
+        <v>2403347.408050597</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33281.39232889808</v>
+        <v>3568235.846369905</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46690.86907707799</v>
+        <v>4704962.767667112</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59890.32885556089</v>
+        <v>5799896.311994622</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73089.7886340438</v>
+        <v>6894829.856322127</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86869.78646954513</v>
+        <v>8010301.547022372</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100546.5775393543</v>
+        <v>9105235.091349876</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114113.2305521451</v>
+        <v>10196272.1959713</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>127699.4636639614</v>
+        <v>11291205.74029881</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140944.4380229615</v>
+        <v>12400980.43671433</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152265.544079452</v>
+        <v>13511137.00163386</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>163796.6671056396</v>
+        <v>14663086.94352309</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>175480.6090131622</v>
+        <v>15793483.53326003</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187051.7691625876</v>
+        <v>16810130.37699955</v>
       </c>
     </row>
   </sheetData>
